--- a/your-code/Conditional Formats exercises.xlsx
+++ b/your-code/Conditional Formats exercises.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c646aa9d978bc39d/Documents/Module 4/Week 1/Day 1 - Excel Basic Functions/Lab/lab_3_conditional-formating/your-code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\Ironhack\visualisation\labs\lab-excel-conditional-formatting\your-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8923E855-C02E-4B75-8C58-776D5767F77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{821F8CA9-D6B9-40E1-8A9C-FD896441D5A6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5891F43E-39A9-4FF9-ABFA-D699E5A5E0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise 1 solved" sheetId="3" state="hidden" r:id="rId1"/>
@@ -470,7 +470,571 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="66">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="dashDotDot">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="dashDotDot">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="dashDotDot">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="dashDotDot">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="dashDotDot">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="dashDotDot">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="dashDotDot">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="dashDotDot">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="dashDotDot">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="dashDotDot">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="dashDotDot">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="dashDotDot">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF823E92"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -590,6 +1154,13 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9999"/>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FF823E92"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1151,13 +1722,13 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:schemeClr val="accent2"/>
         </a:solidFill>
-        <a:ln w="3175" cmpd="sng">
+        <a:ln w="12700" cmpd="sng">
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:prstDash val="dash"/>
         </a:ln>
         <a:effectLst/>
       </xdr:spPr>
@@ -1254,9 +1825,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1294,7 +1865,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1400,7 +1971,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1542,7 +2113,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1556,17 +2127,17 @@
       <selection activeCell="N3" sqref="N3:Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="10.90625" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" style="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1583,7 +2154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="4">
         <v>980748</v>
       </c>
@@ -1600,7 +2171,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="4">
         <v>379829</v>
       </c>
@@ -1617,7 +2188,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" s="4">
         <v>838293</v>
       </c>
@@ -1634,7 +2205,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <v>384953</v>
       </c>
@@ -1651,7 +2222,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <v>234242</v>
       </c>
@@ -1668,7 +2239,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <v>234625</v>
       </c>
@@ -1685,7 +2256,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <v>546175</v>
       </c>
@@ -1702,7 +2273,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <v>185675</v>
       </c>
@@ -1719,7 +2290,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <v>456546</v>
       </c>
@@ -1736,7 +2307,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <v>465464</v>
       </c>
@@ -1753,7 +2324,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <v>745644</v>
       </c>
@@ -1770,7 +2341,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
         <v>641645</v>
       </c>
@@ -1787,7 +2358,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <v>727654</v>
       </c>
@@ -1804,7 +2375,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B17" s="4">
         <v>345634</v>
       </c>
@@ -1821,7 +2392,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B18" s="4">
         <v>457465</v>
       </c>
@@ -1838,7 +2409,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B19" s="4">
         <v>115465</v>
       </c>
@@ -1855,7 +2426,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
         <v>345464</v>
       </c>
@@ -1872,7 +2443,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21" s="4">
         <v>896667</v>
       </c>
@@ -1889,7 +2460,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B22" s="4">
         <v>654745</v>
       </c>
@@ -1906,7 +2477,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B23" s="4">
         <v>568545</v>
       </c>
@@ -1923,7 +2494,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B24" s="4">
         <v>667563</v>
       </c>
@@ -1940,7 +2511,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B25" s="4">
         <v>346366</v>
       </c>
@@ -1957,7 +2528,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B26" s="4">
         <v>643456</v>
       </c>
@@ -1974,7 +2545,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>12</v>
       </c>
@@ -1994,49 +2565,49 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <conditionalFormatting sqref="B4:B26">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="6" operator="lessThan">
       <formula>300000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C26">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="East">
+    <cfRule type="containsText" dxfId="64" priority="5" operator="containsText" text="East">
       <formula>NOT(ISERROR(SEARCH("East",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D26">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="63" priority="4" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
     <cfRule type="dataBar" priority="3">
@@ -2053,7 +2624,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F26">
-    <cfRule type="top10" dxfId="6" priority="1" percent="1" rank="5"/>
+    <cfRule type="top10" dxfId="61" priority="1" percent="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2087,20 +2658,20 @@
       <selection activeCell="N3" sqref="N3:Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="4.21875" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="11" max="11" width="4.1796875" customWidth="1"/>
+    <col min="12" max="12" width="14.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" s="25" t="s">
         <v>71</v>
       </c>
@@ -2135,7 +2706,7 @@
         <v>9.8699999999999992</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>61</v>
       </c>
@@ -2147,7 +2718,7 @@
       </c>
       <c r="E4" s="18">
         <f ca="1">TODAY()</f>
-        <v>45802</v>
+        <v>45818</v>
       </c>
       <c r="F4" s="17">
         <v>1000</v>
@@ -2175,7 +2746,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>57</v>
       </c>
@@ -2187,7 +2758,7 @@
       </c>
       <c r="E5" s="18">
         <f t="shared" ref="E5:E15" ca="1" si="4">E4-1</f>
-        <v>45801</v>
+        <v>45817</v>
       </c>
       <c r="F5" s="17">
         <v>1500</v>
@@ -2215,7 +2786,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>53</v>
       </c>
@@ -2227,7 +2798,7 @@
       </c>
       <c r="E6" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45800</v>
+        <v>45816</v>
       </c>
       <c r="F6" s="17">
         <v>1235</v>
@@ -2255,7 +2826,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>50</v>
       </c>
@@ -2267,7 +2838,7 @@
       </c>
       <c r="E7" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45799</v>
+        <v>45815</v>
       </c>
       <c r="F7" s="17">
         <v>1452</v>
@@ -2289,7 +2860,7 @@
         <v>1014.948</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>48</v>
       </c>
@@ -2301,7 +2872,7 @@
       </c>
       <c r="E8" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45798</v>
+        <v>45814</v>
       </c>
       <c r="F8" s="17">
         <v>5845</v>
@@ -2323,7 +2894,7 @@
         <v>4085.6549999999997</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>46</v>
       </c>
@@ -2335,7 +2906,7 @@
       </c>
       <c r="E9" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45797</v>
+        <v>45813</v>
       </c>
       <c r="F9" s="17">
         <v>5000</v>
@@ -2357,7 +2928,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>43</v>
       </c>
@@ -2369,7 +2940,7 @@
       </c>
       <c r="E10" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45796</v>
+        <v>45812</v>
       </c>
       <c r="F10" s="17">
         <v>1200</v>
@@ -2391,7 +2962,7 @@
         <v>838.8</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>40</v>
       </c>
@@ -2403,7 +2974,7 @@
       </c>
       <c r="E11" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45795</v>
+        <v>45811</v>
       </c>
       <c r="F11" s="17">
         <v>1320</v>
@@ -2425,7 +2996,7 @@
         <v>922.68000000000006</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>37</v>
       </c>
@@ -2437,7 +3008,7 @@
       </c>
       <c r="E12" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45794</v>
+        <v>45810</v>
       </c>
       <c r="F12" s="17">
         <v>1478</v>
@@ -2459,7 +3030,7 @@
         <v>1033.1219999999998</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
@@ -2471,7 +3042,7 @@
       </c>
       <c r="E13" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45793</v>
+        <v>45809</v>
       </c>
       <c r="F13" s="17">
         <v>5369</v>
@@ -2493,7 +3064,7 @@
         <v>3752.931</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
@@ -2505,7 +3076,7 @@
       </c>
       <c r="E14" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45792</v>
+        <v>45808</v>
       </c>
       <c r="F14" s="17">
         <v>2153</v>
@@ -2527,7 +3098,7 @@
         <v>1504.9470000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
@@ -2539,7 +3110,7 @@
       </c>
       <c r="E15" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45791</v>
+        <v>45807</v>
       </c>
       <c r="F15" s="17">
         <v>4752</v>
@@ -2561,7 +3132,7 @@
         <v>3321.6480000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
         <v>27</v>
       </c>
@@ -2569,7 +3140,7 @@
       <c r="D16" s="15"/>
       <c r="E16" s="14">
         <f ca="1">SUM(E4:E15)</f>
-        <v>549558</v>
+        <v>549750</v>
       </c>
       <c r="F16" s="13">
         <f>SUM(F4:F15)</f>
@@ -2592,10 +3163,10 @@
         <v>22580.495999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D17"/>
     </row>
-    <row r="18" spans="1:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -2629,30 +3200,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="9" stopIfTrue="1">
       <formula>RIGHT(LEFT(B4,SEARCH("/",B4)+1),1)="1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="59" priority="8">
       <formula>LEN(C4)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D15">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="H">
+    <cfRule type="containsText" dxfId="58" priority="7" operator="containsText" text="H">
       <formula>NOT(ISERROR(SEARCH("H",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E15">
-    <cfRule type="timePeriod" dxfId="2" priority="6" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="57" priority="6" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(E4,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(E4,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F15">
-    <cfRule type="top10" dxfId="1" priority="5" percent="1" rank="25"/>
+    <cfRule type="top10" dxfId="56" priority="5" percent="1" rank="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G15">
-    <cfRule type="aboveAverage" dxfId="0" priority="4"/>
+    <cfRule type="aboveAverage" dxfId="55" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H15">
     <cfRule type="colorScale" priority="3">
@@ -2697,21 +3268,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" style="1"/>
-    <col min="5" max="5" width="10.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" style="2"/>
+    <col min="1" max="1" width="10.90625" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="1"/>
+    <col min="5" max="5" width="10.90625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -2728,7 +3299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="4">
         <v>980748</v>
       </c>
@@ -2745,7 +3316,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="4">
         <v>379829</v>
       </c>
@@ -2762,7 +3333,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" s="4">
         <v>838293</v>
       </c>
@@ -2779,7 +3350,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <v>384953</v>
       </c>
@@ -2796,7 +3367,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <v>234242</v>
       </c>
@@ -2813,7 +3384,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <v>234625</v>
       </c>
@@ -2830,7 +3401,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <v>546175</v>
       </c>
@@ -2847,7 +3418,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <v>185675</v>
       </c>
@@ -2864,7 +3435,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <v>456546</v>
       </c>
@@ -2881,7 +3452,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <v>465464</v>
       </c>
@@ -2898,7 +3469,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <v>745644</v>
       </c>
@@ -2915,7 +3486,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
         <v>641645</v>
       </c>
@@ -2932,7 +3503,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <v>727654</v>
       </c>
@@ -2949,7 +3520,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B17" s="4">
         <v>345634</v>
       </c>
@@ -2966,7 +3537,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B18" s="4">
         <v>457465</v>
       </c>
@@ -2983,7 +3554,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B19" s="4">
         <v>115465</v>
       </c>
@@ -3000,7 +3571,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
         <v>345464</v>
       </c>
@@ -3017,7 +3588,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21" s="4">
         <v>896667</v>
       </c>
@@ -3034,7 +3605,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B22" s="4">
         <v>654745</v>
       </c>
@@ -3051,7 +3622,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B23" s="4">
         <v>568545</v>
       </c>
@@ -3068,7 +3639,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B24" s="4">
         <v>667563</v>
       </c>
@@ -3085,7 +3656,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B25" s="4">
         <v>346366</v>
       </c>
@@ -3102,7 +3673,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B26" s="4">
         <v>643456</v>
       </c>
@@ -3119,7 +3690,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>12</v>
       </c>
@@ -3139,34 +3710,100 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <conditionalFormatting sqref="D3:D26">
+    <cfRule type="cellIs" dxfId="45" priority="6" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B26">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="lessThan">
+      <formula>300000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E26">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FB272550-F720-441D-B316-EA73416A04C9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="greaterThan">
+      <formula>40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F26">
+    <cfRule type="top10" dxfId="42" priority="2" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{59231A8A-7347-448A-A519-B31EEA0A5F8D}">
+            <xm:f>NOT(ISERROR(SEARCH("South",C3)))</xm:f>
+            <xm:f>"South"</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="9"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C3:C26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FB272550-F720-441D-B316-EA73416A04C9}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E4:E26</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3174,24 +3811,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4E3BC9-96B0-4DE5-AD9D-A5FC7055046E}">
   <dimension ref="A3:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="4.21875" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="11" max="11" width="4.1796875" customWidth="1"/>
+    <col min="12" max="12" width="14.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" s="25" t="s">
         <v>71</v>
       </c>
@@ -3226,7 +3863,7 @@
         <v>9.8699999999999992</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>61</v>
       </c>
@@ -3238,7 +3875,7 @@
       </c>
       <c r="E4" s="18">
         <f ca="1">TODAY()</f>
-        <v>45802</v>
+        <v>45818</v>
       </c>
       <c r="F4" s="17">
         <v>1000</v>
@@ -3266,7 +3903,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>57</v>
       </c>
@@ -3278,7 +3915,7 @@
       </c>
       <c r="E5" s="18">
         <f t="shared" ref="E5:E15" ca="1" si="4">E4-1</f>
-        <v>45801</v>
+        <v>45817</v>
       </c>
       <c r="F5" s="17">
         <v>1500</v>
@@ -3306,7 +3943,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>53</v>
       </c>
@@ -3318,7 +3955,7 @@
       </c>
       <c r="E6" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45800</v>
+        <v>45816</v>
       </c>
       <c r="F6" s="17">
         <v>1235</v>
@@ -3346,7 +3983,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>50</v>
       </c>
@@ -3358,7 +3995,7 @@
       </c>
       <c r="E7" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45799</v>
+        <v>45815</v>
       </c>
       <c r="F7" s="17">
         <v>1452</v>
@@ -3380,7 +4017,7 @@
         <v>1014.948</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>48</v>
       </c>
@@ -3392,7 +4029,7 @@
       </c>
       <c r="E8" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45798</v>
+        <v>45814</v>
       </c>
       <c r="F8" s="17">
         <v>5845</v>
@@ -3414,7 +4051,7 @@
         <v>4085.6549999999997</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>46</v>
       </c>
@@ -3426,7 +4063,7 @@
       </c>
       <c r="E9" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45797</v>
+        <v>45813</v>
       </c>
       <c r="F9" s="17">
         <v>5000</v>
@@ -3448,7 +4085,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>43</v>
       </c>
@@ -3460,7 +4097,7 @@
       </c>
       <c r="E10" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45796</v>
+        <v>45812</v>
       </c>
       <c r="F10" s="17">
         <v>1200</v>
@@ -3482,7 +4119,7 @@
         <v>838.8</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>40</v>
       </c>
@@ -3494,7 +4131,7 @@
       </c>
       <c r="E11" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45795</v>
+        <v>45811</v>
       </c>
       <c r="F11" s="17">
         <v>1320</v>
@@ -3516,7 +4153,7 @@
         <v>922.68000000000006</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>37</v>
       </c>
@@ -3528,7 +4165,7 @@
       </c>
       <c r="E12" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45794</v>
+        <v>45810</v>
       </c>
       <c r="F12" s="17">
         <v>1478</v>
@@ -3550,7 +4187,7 @@
         <v>1033.1219999999998</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
@@ -3562,7 +4199,7 @@
       </c>
       <c r="E13" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45793</v>
+        <v>45809</v>
       </c>
       <c r="F13" s="17">
         <v>5369</v>
@@ -3584,7 +4221,7 @@
         <v>3752.931</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
@@ -3596,7 +4233,7 @@
       </c>
       <c r="E14" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45792</v>
+        <v>45808</v>
       </c>
       <c r="F14" s="17">
         <v>2153</v>
@@ -3618,7 +4255,7 @@
         <v>1504.9470000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
@@ -3630,7 +4267,7 @@
       </c>
       <c r="E15" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>45791</v>
+        <v>45807</v>
       </c>
       <c r="F15" s="17">
         <v>4752</v>
@@ -3652,7 +4289,7 @@
         <v>3321.6480000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
         <v>27</v>
       </c>
@@ -3660,7 +4297,7 @@
       <c r="D16" s="15"/>
       <c r="E16" s="14">
         <f ca="1">SUM(E4:E15)</f>
-        <v>549558</v>
+        <v>549750</v>
       </c>
       <c r="F16" s="13">
         <f>SUM(F4:F15)</f>
@@ -3683,10 +4320,10 @@
         <v>22580.495999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D17"/>
     </row>
-    <row r="18" spans="1:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -3719,6 +4356,65 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B4:B15">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="/1">
+      <formula>NOT(ISERROR(SEARCH("/1",B4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C15">
+    <cfRule type="expression" dxfId="10" priority="8">
+      <formula>LEN(C4)&gt;5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D15">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+      <formula>"H"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E15">
+    <cfRule type="timePeriod" dxfId="8" priority="6" timePeriod="lastWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(E4,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(E4,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F15">
+    <cfRule type="top10" dxfId="7" priority="5" percent="1" rank="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G15">
+    <cfRule type="aboveAverage" dxfId="6" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H15">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I15">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J15">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1000"/>
+        <cfvo type="num" val="2000"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
